--- a/data/Plate_results/Third_Plate_Rep1_161020.xlsx
+++ b/data/Plate_results/Third_Plate_Rep1_161020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OD" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TIR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -484,7 +484,7 @@
   </sheetPr>
   <dimension ref="A1:CS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -20318,7 +20318,7 @@
   </sheetPr>
   <dimension ref="A1:CS50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:CS50"/>
     </sheetView>
   </sheetViews>
@@ -50214,7 +50214,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.19152959007284</v>
+        <v>16.19152959007283</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.569633786629351</v>
+        <v>6.56963378662935</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -50649,7 +50649,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.481396806051062</v>
+        <v>9.481396806051061</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -50679,7 +50679,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.772259255171747</v>
+        <v>7.772259255171746</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -50724,7 +50724,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.811961392354439</v>
+        <v>9.811961392354437</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -50739,7 +50739,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.735512045443555</v>
+        <v>9.735512045443556</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.063126889466823</v>
+        <v>7.063126889466824</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -50844,7 +50844,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9.160965900511489</v>
+        <v>9.16096590051149</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.515810712791237</v>
+        <v>5.515810712791236</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>22.93319234173145</v>
+        <v>22.93319234173146</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -50994,7 +50994,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9.729118168360156</v>
+        <v>9.729118168360154</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.86289180885646</v>
+        <v>9.862891808856459</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10.49113867195864</v>
+        <v>10.49113867195863</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
